--- a/files/COVID_article/AppendixTab5.xlsx
+++ b/files/COVID_article/AppendixTab5.xlsx
@@ -387,17 +387,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DiffITt</t>
+          <t>Diff</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>AgeCompITt</t>
+          <t>AgeComp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RateCompITt</t>
+          <t>RateComp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
